--- a/medicine/Pharmacie/Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg/Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg.xlsx
+++ b/medicine/Pharmacie/Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg/Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_chimie_et_de_pharmacie_de_Saint-P%C3%A9tersbourg</t>
+          <t>Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie de chimie et de pharmacie de Saint-Pétersbourg (Санкт-Петербургская государственная химико-фармацевтическая академия), est un établissement d'enseignement  supérieur qui forme des spécialistes dans le domaine pharmaceutique. Il se situe sur l'ile de l'aptekarsky à Saint-Pétersbourg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_chimie_et_de_pharmacie_de_Saint-P%C3%A9tersbourg</t>
+          <t>Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut d'État de chimie et de pharmacie de Petrograd a été fondé le 22 octobre 1919, à la suite d'une longue lutte des pharmaciens pour obtenir une formation complète. En ce jour le conseil provisoire de L'IECP a tracé les grandes lignes et a décidé d'ouvrir les départements principaux de l'institut. Alexandre Semenovitch Ginzberg a été choisi comme le premier directeur de l'établissement . Trois ans après, en 1922, l'institut a commencé à décerner des diplômes.
 Le 8 septembre 1924 l'Institut a été affilié à l'université d'État de Leningrad en tant que faculté de chimie et de pharmacie, puis à l'université Pavlov de médecine de Leningrad I , avant de redevenir indépendant le 1er janvier 1947, sous le nom de l'Institut de pharmacie de Leningrad (IPL).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_chimie_et_de_pharmacie_de_Saint-P%C3%A9tersbourg</t>
+          <t>Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Faculté de pharmacie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté de pharmacie forme des spécialistes en pharmacie, dont l'objet professionnel est le médicament. Les diplômés exercent leur profession dans les pharmacies et les sociétés pharmaceutiques, ainsi que dans les laboratoires de contrôle et d'analyses, les laboratoires médicolégaux et dans tous autres laboratoires chimiques dont les activités sont : la synthèse, l'analyse et l'étude de toute substance médicamenteuse.
 Les études dans la faculté de pharmacie se font à plein temps ou à distance. Les études à plein temps sont le plus souvent gratuites, tandis que les études à distance sont toujours payantes.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_chimie_et_de_pharmacie_de_Saint-P%C3%A9tersbourg</t>
+          <t>Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Faculté d'industrie et de technologie pharmaceutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1945, elle est la seule en Russie à former des ingénieurs spécialisés en industries chimique et pharmaceutique dans les spécialités suivantes :
 1  La biosynthèse des médicaments (synthèse des substances biologiquement actives à partir de souche microbiologique).
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_chimie_et_de_pharmacie_de_Saint-P%C3%A9tersbourg</t>
+          <t>Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Faculté de  formation professionnelle continue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle propose des cycles de formation pour les pharmaciens dans les spécialités suivantes : gestion et économie de pharmacie, chimie pharmaceutique et pharmacognosie. 
 </t>
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_chimie_et_de_pharmacie_de_Saint-P%C3%A9tersbourg</t>
+          <t>Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +669,9 @@
           <t>Autres subdivisions de l'Académie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pépinière de plantes médicinales qui appartient à l'académie se trouve dans la ville de Lembolovo. Elle sert à la fois comme point d'introduction et de culture de plantes médicinales (plus de 400 espèces) de différentes zones climatiques et comme base de stage académique pour les étudiants de la faculté de pharmacie.
 L'académie compte aussi : un bureau de brevet et de licence, un centre d'internet, un centre d'informatique et de base de données qui est utilisé par le  ministère de santé publique de la fédération de Russie.
@@ -664,7 +686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_chimie_et_de_pharmacie_de_Saint-P%C3%A9tersbourg</t>
+          <t>Académie_de_chimie_et_de_pharmacie_de_Saint-Pétersbourg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,7 +704,9 @@
           <t>Activités sportives</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'académie participe activement aux championnats sportifs inter-universitaires.
 </t>
